--- a/app/webroot/report/template/student_list.xlsx
+++ b/app/webroot/report/template/student_list.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="19440" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">TRƯỜNG ĐẠI HỌC TRÀ VINH
 TT. HỖ TRỢ - PHÁT TRIỂN DẠY VÀ HỌC
@@ -33,30 +33,6 @@
     <t xml:space="preserve">CÁN BỘ, GIẢNG VIÊN THAM GIA TẬP HUẤN </t>
   </si>
   <si>
-    <t>Họ và Tên</t>
-  </si>
-  <si>
-    <t>Đơn vị</t>
-  </si>
-  <si>
-    <t>Ngày sinh</t>
-  </si>
-  <si>
-    <t>Nơi sinh</t>
-  </si>
-  <si>
-    <t>Ghi chú</t>
-  </si>
-  <si>
-    <t>Stt</t>
-  </si>
-  <si>
-    <t>Buổi 1</t>
-  </si>
-  <si>
-    <t>Buổi 2</t>
-  </si>
-  <si>
     <t>CHUYÊN ĐỀ:</t>
   </si>
   <si>
@@ -68,18 +44,12 @@
   <si>
     <t>đến</t>
   </si>
-  <si>
-    <t>Buổi 3</t>
-  </si>
-  <si>
-    <t>Buổi 4</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,13 +186,13 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,7 +375,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -440,7 +409,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -616,14 +584,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A8" sqref="A8:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="18.85546875" style="1" customWidth="1"/>
@@ -637,95 +605,75 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:10" ht="51.75" customHeight="1">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
     </row>
-    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:10" ht="18.75">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:10" ht="18.75">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="16.5">
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="16.5">
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>8</v>
-      </c>
+    <row r="8" spans="1:10" ht="15.75">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -741,24 +689,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
